--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -14,54 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>C/- PAUL JOHNSTONE PO BOX 3173 NORTH STRATHFIELD NSW 2137</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>18 DAWES PLACE BLIGH PARK NSW 2756 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>11/11 Bortfield Drive Chiswick NSW 2046 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>39 ASHFORD PDE MEREWETHER HEIGHTS NSW 2291 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>275 PITT TOWN DURAL RD MARAYLYA NSW 2765 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>Unit 1 27-39 BULWER ST MAITLAND NSW 2320 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>GPO Box 4393 SYDNEY NSW 2001 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>21 SURREY ST EPPING NSW 2121 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>C/-ESUPERFUND PTY LTD PO BOX 401 NORTH MELBOURNE VIC 3051 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>C/- GRAEME J REES PO BOX 135 ORANGE NSW 2800 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>C/- MANNIONS BUSINESS SERVICES PTY LTD PO BOX 563 CARINGBAH NSW 1495</t>
-  </si>
-  <si>
-    <t>PO Box 1180 PORT MACQUARIE NSW 2444 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>PO Box 156 TEMORA NSW 2666 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>PO Box 338 ST LEONARDS NSW 1590 AUSTRALIA</t>
-  </si>
-  <si>
-    <t>Not available</t>
+    <t>PO Box 1984 NORTH SYDNEY NSW 2059 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>45 FAIRLIGHT ST FAIRLIGHT NSW 2094 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>C/- PLATINUM ONE ACCOUNTING SERVICES PO BOX 8301 BAULKHAM HILLS NSW 2153 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>41 DURHAM RD GOROKAN NSW 2263 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>C/- DBW GROUP PO Box 1261 NORTH SYDNEY NSW 2059 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PO Box 56 COOMA NSW 2630 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PO Box 91 OATLEY NSW 2223 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PO Box 460 WOLLONGONG NSW 2520 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PO BOX Q18 QVB QVB SYDNEY NSW 1230 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PREMIER SUPER SERVICES LEVEL 20 60 MARGARET ST SYDNEY NSW 2000</t>
+  </si>
+  <si>
+    <t>PO BOX 5400 TAMWORTH NSW 2340 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>C/- GUILLAN EVANS &amp; CO Level 10 / 189 Kent Street SYDNEY NSW 2000 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>PO Box 401 NORTH MELBOURNE VIC 3051 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>C/- Mr M Elsley PO Box 2937 Bowral NSW 2576 AUSTRALIA</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A44"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,415 +913,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="3">
+        <v>32296276185</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>52468802760</v>
+        <v>14602099245</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>89642912868</v>
+        <v>96482849496</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>29057445841</v>
+        <v>33564421425</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>74468717841</v>
+        <v>54694335443</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>64517981337</v>
+        <v>60499835651</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>49160139011</v>
+        <v>89044988332</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>87898669005</v>
+        <v>11171134309</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>90336336329</v>
+        <v>35859427031</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>26491464968</v>
+        <v>55686798359</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>53688685294</v>
+        <v>80176560118</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>13786060971</v>
+        <v>18215292419</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>16625652974</v>
+        <v>58358748605</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41476454046</v>
+        <v>90807848054</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>80294423137</v>
+        <v>98358813676</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>82955344013</v>
+        <v>19857687651</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>13491375751</v>
+        <v>51505878750</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>93981141007</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
